--- a/exports/PackSize-Flexibility/1-RandomVariable.xlsx
+++ b/exports/PackSize-Flexibility/1-RandomVariable.xlsx
@@ -1077,10 +1077,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1217,10 +1217,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1252,10 +1252,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9949238578680203</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1287,10 +1287,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.9923857868020305</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>0.007614213197969543</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1322,10 +1322,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.9796954314720813</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0.02030456852791878</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1357,13 +1357,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.9822335025380711</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0.01522842639593909</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1392,16 +1392,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.934010152284264</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>0.05583756345177665</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0.007614213197969543</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.949238578680203</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>0.04314720812182741</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0.007614213197969543</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1462,13 +1462,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.9238578680203046</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>0.05583756345177665</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>0.02030456852791878</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1497,22 +1497,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.9060913705583756</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>0.04060913705583756</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>0.03553299492385787</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0.007614213197969543</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.007614213197969543</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1532,25 +1532,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.8807106598984772</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>0.0583756345177665</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>0.02284263959390863</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0.02791878172588833</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1567,22 +1567,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.883248730964467</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>0.05076142131979695</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0.04822335025380711</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0.01522842639593909</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1602,16 +1602,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.9035532994923858</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>0.05583756345177665</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0.02791878172588833</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0.01269035532994924</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.934010152284264</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>0.03807106598984772</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>0.02030456852791878</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0.007614213197969543</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1672,16 +1672,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.9111675126903553</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>0.05583756345177665</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>0.03045685279187817</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1707,13 +1707,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.9543147208121827</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0.04060913705583756</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1742,10 +1742,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9695431472081218</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>0.03045685279187817</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.9771573604060914</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0.02284263959390863</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9746192893401016</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0.02284263959390863</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1847,10 +1847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.9847715736040609</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>0.01522842639593909</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1882,10 +1882,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.9873096446700508</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>0.01269035532994924</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1917,13 +1917,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.9822335025380711</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>0.01522842639593909</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1952,10 +1952,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.9898477157360406</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>0.01015228426395939</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1987,10 +1987,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2022,10 +2022,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.9822335025380711</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>0.01776649746192894</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2057,10 +2057,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.9923857868020305</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>0.007614213197969543</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.9873096446700508</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>0.01269035532994924</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2127,10 +2127,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.9923857868020305</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>0.007614213197969543</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2162,13 +2162,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.9670050761421319</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>0.02284263959390863</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0.01015228426395939</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2197,13 +2197,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.9543147208121827</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>0.04060913705583756</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2232,16 +2232,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.9467005076142132</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>0.04060913705583756</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0.007614213197969543</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2267,13 +2267,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.9619289340101523</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>0.03553299492385787</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2302,13 +2302,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.9568527918781726</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>0.03553299492385787</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>0.007614213197969543</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2337,13 +2337,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.9695431472081218</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>0.02791878172588833</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2372,13 +2372,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.9796954314720813</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>0.01522842639593909</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2407,13 +2407,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.9746192893401016</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>0.02284263959390863</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.9822335025380711</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>0.01522842639593909</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2477,10 +2477,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.9949238578680203</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2512,10 +2512,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.9873096446700508</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>0.01269035532994924</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.9873096446700508</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>0.01269035532994924</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2582,10 +2582,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.9923857868020305</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>0.007614213197969543</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2652,10 +2652,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.9949238578680203</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2687,10 +2687,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.9949238578680203</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>0.005076142131979695</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2792,10 +2792,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2897,10 +2897,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3142,10 +3142,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3457,10 +3457,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3492,10 +3492,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.9974619289340102</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3887,1849 +3887,409 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:1">
       <c r="A24" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:1">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:1">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="K27">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="C30">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="D30">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="E30">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="F30">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="G30">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="H30">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="K30">
-        <v>0.5454545454545454</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F31">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="J31">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="K31">
-        <v>0.7777777777777778</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0.6086956521739131</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="H32">
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="I32">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="J32">
-        <v>0.4347826086956522</v>
-      </c>
-      <c r="K32">
-        <v>0.5217391304347826</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="D33">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="E33">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="K33">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0.16</v>
-      </c>
-      <c r="E34">
-        <v>0.08</v>
-      </c>
-      <c r="F34">
-        <v>0.08</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0.48</v>
-      </c>
-      <c r="J34">
-        <v>0.72</v>
-      </c>
-      <c r="K34">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="D35">
-        <v>0.4347826086956522</v>
-      </c>
-      <c r="E35">
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="F35">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="J35">
-        <v>0.4347826086956522</v>
-      </c>
-      <c r="K35">
-        <v>0.4347826086956522</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="C36">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="D36">
-        <v>0.6086956521739131</v>
-      </c>
-      <c r="E36">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="F36">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="I36">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="J36">
-        <v>0.4347826086956522</v>
-      </c>
-      <c r="K36">
-        <v>0.08695652173913043</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>0.1052631578947368</v>
-      </c>
-      <c r="C37">
-        <v>0.2105263157894737</v>
-      </c>
-      <c r="D37">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="E37">
-        <v>0.1052631578947368</v>
-      </c>
-      <c r="F37">
-        <v>0.1052631578947368</v>
-      </c>
-      <c r="G37">
-        <v>0.2105263157894737</v>
-      </c>
-      <c r="H37">
-        <v>0.1052631578947368</v>
-      </c>
-      <c r="I37">
-        <v>0.3157894736842105</v>
-      </c>
-      <c r="J37">
-        <v>0.3157894736842105</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D38">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E38">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="F38">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="G38">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="H38">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="I38">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="J38">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="K38">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="D39">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="E39">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="I39">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0.2352941176470588</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D40">
-        <v>0.5</v>
-      </c>
-      <c r="E40">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="H40">
-        <v>0.5</v>
-      </c>
-      <c r="I40">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0.25</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0.75</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0.6</v>
-      </c>
-      <c r="D42">
-        <v>0.4</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0.2</v>
-      </c>
-      <c r="H42">
-        <v>0.4</v>
-      </c>
-      <c r="I42">
-        <v>0.4</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H43">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="I43">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44">
-        <v>1.2</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0.4</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0.4</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0.4</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0.4</v>
-      </c>
-      <c r="G45">
-        <v>0.4</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0.8</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>0.5</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0.5</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="E48">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="F48">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="G48">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0.4</v>
-      </c>
-      <c r="E50">
-        <v>0.8</v>
-      </c>
-      <c r="F50">
-        <v>0.4</v>
-      </c>
-      <c r="G50">
-        <v>0.4</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="E52">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="F52">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="G52">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="D53">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="E53">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="F53">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G53">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="H53">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+    </row>
+    <row r="54" spans="1:1">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="E54">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="F54">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="G54">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="K54">
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="C55">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="D55">
-        <v>0.8</v>
-      </c>
-      <c r="E55">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="F55">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+    </row>
+    <row r="56" spans="1:1">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="C56">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="D56">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="E56">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+    </row>
+    <row r="57" spans="1:1">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="D57">
-        <v>1.090909090909091</v>
-      </c>
-      <c r="E57">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+    </row>
+    <row r="58" spans="1:1">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>0.25</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>0.5</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0.25</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+    </row>
+    <row r="59" spans="1:1">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="D59">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="E59">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+    </row>
+    <row r="60" spans="1:1">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C60">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="D60">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+    </row>
+    <row r="62" spans="1:1">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62">
-        <v>0.4</v>
-      </c>
-      <c r="C62">
-        <v>1.2</v>
-      </c>
-      <c r="D62">
-        <v>0.4</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+    </row>
+    <row r="63" spans="1:1">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63">
-        <v>1.2</v>
-      </c>
-      <c r="C63">
-        <v>0.8</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+    </row>
+    <row r="64" spans="1:1">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64">
-        <v>2</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+    </row>
+    <row r="65" spans="1:1">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+    </row>
+    <row r="67" spans="1:1">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+    </row>
+    <row r="68" spans="1:1">
       <c r="A68" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:1">
       <c r="A69" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:1">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>2</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+    </row>
+    <row r="71" spans="1:1">
       <c r="A71" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:1">
       <c r="A72" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:1">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+    </row>
+    <row r="74" spans="1:1">
       <c r="A74" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:1">
       <c r="A75" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:1">
       <c r="A76" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:1">
       <c r="A77" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:1">
       <c r="A78" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:1">
       <c r="A79" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:1">
       <c r="A80" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:1">
       <c r="A81" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:1">
       <c r="A82" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:1">
       <c r="A83" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:1">
       <c r="A84" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:1">
       <c r="A85" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:1">
       <c r="A86" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:1">
       <c r="A87" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:1">
       <c r="A88" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:1">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>2</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+    </row>
+    <row r="90" spans="1:1">
       <c r="A90" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:1">
       <c r="A91" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:1">
       <c r="A92" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:1">
       <c r="A93" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:1">
       <c r="A94" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:1">
       <c r="A95" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:1">
       <c r="A96" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:1">
       <c r="A97" s="1">
         <v>95</v>
-      </c>
-      <c r="B97">
-        <v>2</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5782,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5817,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5852,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5887,7 +4447,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5922,7 +4482,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -5957,7 +4517,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -5992,7 +4552,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -6027,7 +4587,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -6062,7 +4622,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -6097,7 +4657,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -6132,7 +4692,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -6167,7 +4727,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -6202,7 +4762,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -6237,7 +4797,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -6272,7 +4832,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -6307,7 +4867,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -6342,7 +4902,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -6377,7 +4937,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -6412,7 +4972,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -6447,7 +5007,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -6482,10 +5042,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -6517,7 +5077,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -6552,7 +5112,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -6587,10 +5147,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -6622,13 +5182,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -6657,7 +5217,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -6692,10 +5252,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.1653976311336718</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0.001269035532994924</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -6727,19 +5287,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.1641285956006768</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0.001269035532994924</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -6762,19 +5322,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.1569373942470389</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>0.00676818950930626</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0.002115059221658206</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -6797,16 +5357,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.1590524534686971</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>0.005922165820642978</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -6832,16 +5392,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.1552453468697123</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>0.008460236886632826</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>0.001269035532994924</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0.001692047377326565</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -6867,28 +5427,28 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.1522842639593909</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>0.005499153976311336</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>0.003807106598984772</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0.002115059221658206</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.001692047377326565</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -6902,34 +5462,34 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.1476311336717428</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>0.009306260575296108</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0.001692047377326565</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.002961082910321489</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.001692047377326565</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -6937,19 +5497,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.1493231810490694</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>0.004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0.005922165820642978</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0.004653130287648054</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.002115059221658206</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -6961,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -6972,25 +5532,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.1535532994923858</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>0.004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0.004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0.001692047377326565</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.002115059221658206</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -7007,22 +5567,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.1582064297800339</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>0.004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>0.002115059221658206</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -7031,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -7042,16 +5602,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.155668358714044</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>0.005499153976311336</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>0.004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0.001269035532994924</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -7077,13 +5637,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.1611675126903553</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0.003807106598984772</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>0.001692047377326565</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -7112,13 +5672,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.1628595600676819</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>0.00338409475465313</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -7147,13 +5707,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.1637055837563452</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0.002115059221658206</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -7182,13 +5742,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.1628595600676819</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0.002961082910321489</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -7217,13 +5777,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.1653976311336718</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -7252,16 +5812,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.1653976311336718</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -7287,13 +5847,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.1645516074450084</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>0.001269035532994924</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -7322,13 +5882,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.1653976311336718</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -7357,13 +5917,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -7392,13 +5952,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.1649746192893401</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>0.001269035532994924</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -7427,13 +5987,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.1653976311336718</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -7462,10 +6022,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -7497,7 +6057,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -7532,13 +6092,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.1637055837563452</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -7567,16 +6127,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.1645516074450084</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>0.001269035532994924</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -7602,13 +6162,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.1620135363790186</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>0.004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -7637,13 +6197,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.1632825719120135</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -7672,13 +6232,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.1628595600676819</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>0.002538071065989848</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>0.001269035532994924</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -7707,13 +6267,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.1641285956006768</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>0.002115059221658206</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -7742,13 +6302,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.1641285956006768</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>0.002115059221658206</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -7777,13 +6337,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.1645516074450084</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>0.001269035532994924</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -7812,10 +6372,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.1658206429780034</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -7847,10 +6407,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -7882,10 +6442,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.1658206429780034</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>0.0008460236886632825</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -7917,13 +6477,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.1649746192893401</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>0.001269035532994924</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -7952,7 +6512,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -7987,7 +6547,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -8022,10 +6582,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -8057,7 +6617,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -8092,7 +6652,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -8127,13 +6687,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -8162,13 +6722,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -8197,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -8232,7 +6792,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -8267,7 +6827,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -8302,7 +6862,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -8337,7 +6897,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -8372,7 +6932,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -8407,7 +6967,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -8442,7 +7002,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -8477,7 +7037,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -8512,7 +7072,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -8547,7 +7107,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -8582,7 +7142,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -8617,7 +7177,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -8652,7 +7212,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -8687,7 +7247,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -8722,7 +7282,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -8757,7 +7317,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -8792,7 +7352,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -8827,13 +7387,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -8862,7 +7422,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -8897,7 +7457,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -8932,7 +7492,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -8967,7 +7527,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -9002,7 +7562,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -9037,7 +7597,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -9072,7 +7632,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -9107,10 +7667,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.166243654822335</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>0.0004230118443316413</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -9257,1969 +7817,409 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>9.999999999999991</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>9.999999999999991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:1">
       <c r="A24" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:1">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>9.999999999999996</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>3.333333333333334</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>2.5</v>
-      </c>
-      <c r="C28">
-        <v>4.999999999999998</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>2.499999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>6.666666666666664</v>
-      </c>
-      <c r="D29">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="E29">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="C30">
-        <v>3.076923076923076</v>
-      </c>
-      <c r="D30">
-        <v>1.153846153846154</v>
-      </c>
-      <c r="E30">
-        <v>1.153846153846154</v>
-      </c>
-      <c r="F30">
-        <v>0.3846153846153847</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>1.153846153846154</v>
-      </c>
-      <c r="I30">
-        <v>1.153846153846154</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>1.153846153846153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>0.5</v>
-      </c>
-      <c r="C31">
-        <v>4.999999999999998</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.5000000000000001</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="C32">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32">
-        <v>0.3333333333333334</v>
-      </c>
-      <c r="F32">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H32">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0.6666666666666661</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="C33">
-        <v>4.594594594594593</v>
-      </c>
-      <c r="D33">
-        <v>1.621621621621622</v>
-      </c>
-      <c r="E33">
-        <v>0.810810810810811</v>
-      </c>
-      <c r="F33">
-        <v>0.810810810810811</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0.810810810810811</v>
-      </c>
-      <c r="I33">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0.8108108108108102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>1.276595744680851</v>
-      </c>
-      <c r="C34">
-        <v>3.191489361702126</v>
-      </c>
-      <c r="D34">
-        <v>2.765957446808511</v>
-      </c>
-      <c r="E34">
-        <v>1.702127659574468</v>
-      </c>
-      <c r="F34">
-        <v>0.4255319148936171</v>
-      </c>
-      <c r="G34">
-        <v>0.2127659574468083</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0.2127659574468085</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0.2127659574468083</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>0.4347826086956522</v>
-      </c>
-      <c r="C35">
-        <v>1.304347826086956</v>
-      </c>
-      <c r="D35">
-        <v>2.82608695652174</v>
-      </c>
-      <c r="E35">
-        <v>2.608695652173914</v>
-      </c>
-      <c r="F35">
-        <v>1.086956521739131</v>
-      </c>
-      <c r="G35">
-        <v>0.6521739130434777</v>
-      </c>
-      <c r="H35">
-        <v>0.2173913043478261</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0.8695652173913035</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="C36">
-        <v>2.105263157894736</v>
-      </c>
-      <c r="D36">
-        <v>2.894736842105264</v>
-      </c>
-      <c r="E36">
-        <v>1.315789473684211</v>
-      </c>
-      <c r="F36">
-        <v>0.7894736842105265</v>
-      </c>
-      <c r="G36">
-        <v>0.5263157894736837</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0.7894736842105265</v>
-      </c>
-      <c r="J36">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="K36">
-        <v>0.7894736842105257</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>0.8</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>2.800000000000001</v>
-      </c>
-      <c r="E37">
-        <v>1.6</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <v>0.3999999999999996</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0.8000000000000002</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>1.599999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="C38">
-        <v>3.428571428571427</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>0.2857142857142858</v>
-      </c>
-      <c r="F38">
-        <v>1.428571428571429</v>
-      </c>
-      <c r="G38">
-        <v>0.8571428571428564</v>
-      </c>
-      <c r="H38">
-        <v>0.2857142857142858</v>
-      </c>
-      <c r="I38">
-        <v>0.2857142857142858</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0.571428571428571</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>1.111111111111111</v>
-      </c>
-      <c r="C39">
-        <v>0.5555555555555554</v>
-      </c>
-      <c r="D39">
-        <v>0.5555555555555557</v>
-      </c>
-      <c r="E39">
-        <v>2.222222222222223</v>
-      </c>
-      <c r="F39">
-        <v>2.222222222222223</v>
-      </c>
-      <c r="G39">
-        <v>0.555555555555555</v>
-      </c>
-      <c r="H39">
-        <v>0.5555555555555557</v>
-      </c>
-      <c r="I39">
-        <v>0.5555555555555557</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>1.666666666666665</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>3.333333333333332</v>
-      </c>
-      <c r="D40">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>1.666666666666665</v>
-      </c>
-      <c r="H40">
-        <v>0.8333333333333335</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>2.499999999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>1.111111111111111</v>
-      </c>
-      <c r="D41">
-        <v>1.111111111111111</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>1.11111111111111</v>
-      </c>
-      <c r="H41">
-        <v>1.111111111111111</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>5.555555555555551</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>2.222222222222221</v>
-      </c>
-      <c r="D42">
-        <v>1.111111111111111</v>
-      </c>
-      <c r="E42">
-        <v>1.111111111111111</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>5.555555555555551</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="C43">
-        <v>1.666666666666666</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>4.999999999999996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>2.5</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>7.499999999999994</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>1.428571428571429</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>2.857142857142858</v>
-      </c>
-      <c r="G45">
-        <v>1.428571428571427</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>4.285714285714282</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>3.333333333333334</v>
-      </c>
-      <c r="G46">
-        <v>3.33333333333333</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>3.33333333333333</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>10</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>1.428571428571428</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>1.428571428571429</v>
-      </c>
-      <c r="F48">
-        <v>4.285714285714286</v>
-      </c>
-      <c r="G48">
-        <v>1.428571428571427</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>1.428571428571427</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>6.666666666666668</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>3.333333333333334</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-      <c r="C50">
-        <v>3.999999999999999</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>4.000000000000001</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>5.000000000000001</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>4.999999999999996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52">
-        <v>3.076923076923077</v>
-      </c>
-      <c r="C52">
-        <v>2.307692307692307</v>
-      </c>
-      <c r="D52">
-        <v>1.538461538461539</v>
-      </c>
-      <c r="E52">
-        <v>1.538461538461539</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0.7692307692307685</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0.7692307692307694</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53">
-        <v>1.111111111111111</v>
-      </c>
-      <c r="C53">
-        <v>3.333333333333332</v>
-      </c>
-      <c r="D53">
-        <v>1.111111111111111</v>
-      </c>
-      <c r="E53">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="F53">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="G53">
-        <v>0.555555555555555</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0.555555555555555</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+    </row>
+    <row r="54" spans="1:1">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>0.5</v>
-      </c>
-      <c r="C54">
-        <v>1.999999999999999</v>
-      </c>
-      <c r="D54">
-        <v>2.500000000000001</v>
-      </c>
-      <c r="E54">
-        <v>1.5</v>
-      </c>
-      <c r="F54">
-        <v>1.5</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0.5000000000000001</v>
-      </c>
-      <c r="I54">
-        <v>0.5000000000000001</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0.9999999999999991</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="C55">
-        <v>0.6666666666666664</v>
-      </c>
-      <c r="D55">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="E55">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="F55">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="G55">
-        <v>1.333333333333332</v>
-      </c>
-      <c r="H55">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>3.33333333333333</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+    </row>
+    <row r="56" spans="1:1">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56">
-        <v>1.176470588235294</v>
-      </c>
-      <c r="C56">
-        <v>0.5882352941176469</v>
-      </c>
-      <c r="D56">
-        <v>0.5882352941176472</v>
-      </c>
-      <c r="E56">
-        <v>0.5882352941176472</v>
-      </c>
-      <c r="F56">
-        <v>2.352941176470589</v>
-      </c>
-      <c r="G56">
-        <v>3.52941176470588</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0.5882352941176472</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0.5882352941176465</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+    </row>
+    <row r="57" spans="1:1">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="C57">
-        <v>2.499999999999999</v>
-      </c>
-      <c r="D57">
-        <v>0.8333333333333335</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0.8333333333333335</v>
-      </c>
-      <c r="G57">
-        <v>1.666666666666665</v>
-      </c>
-      <c r="H57">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="I57">
-        <v>0.8333333333333335</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0.8333333333333326</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+    </row>
+    <row r="58" spans="1:1">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>1.25</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>5.000000000000001</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>1.25</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>2.499999999999998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+    </row>
+    <row r="59" spans="1:1">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>1.999999999999999</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>2.999999999999997</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>3.999999999999996</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+    </row>
+    <row r="60" spans="1:1">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>1.428571428571428</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>1.428571428571429</v>
-      </c>
-      <c r="F60">
-        <v>1.428571428571429</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>1.428571428571429</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>4.285714285714282</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>5.000000000000001</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>4.999999999999996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+    </row>
+    <row r="62" spans="1:1">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62">
-        <v>2.5</v>
-      </c>
-      <c r="C62">
-        <v>2.499999999999999</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>2.5</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>2.499999999999998</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+    </row>
+    <row r="63" spans="1:1">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>9.999999999999991</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+    </row>
+    <row r="64" spans="1:1">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>9.999999999999991</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+    </row>
+    <row r="65" spans="1:1">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>5.000000000000001</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>4.999999999999996</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>9.999999999999991</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+    </row>
+    <row r="67" spans="1:1">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67">
-        <v>5</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>4.999999999999996</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+    </row>
+    <row r="68" spans="1:1">
       <c r="A68" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:1">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>9.999999999999996</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+    </row>
+    <row r="70" spans="1:1">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>9.999999999999991</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+    </row>
+    <row r="71" spans="1:1">
       <c r="A71" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:1">
       <c r="A72" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:1">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73">
-        <v>10</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+    </row>
+    <row r="74" spans="1:1">
       <c r="A74" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:1">
       <c r="A75" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:1">
       <c r="A76" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:1">
       <c r="A77" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:1">
       <c r="A78" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:1">
       <c r="A79" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:1">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>9.999999999999991</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+    </row>
+    <row r="81" spans="1:1">
       <c r="A81" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:1">
       <c r="A82" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:1">
       <c r="A83" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:1">
       <c r="A84" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:1">
       <c r="A85" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:1">
       <c r="A86" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:1">
       <c r="A87" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:1">
       <c r="A88" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:1">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>9.999999999999991</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+    </row>
+    <row r="90" spans="1:1">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <v>9.999999999999991</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+    </row>
+    <row r="91" spans="1:1">
       <c r="A91" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:1">
       <c r="A92" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:1">
       <c r="A93" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:1">
       <c r="A94" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:1">
       <c r="A95" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:1">
       <c r="A96" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:1">
       <c r="A97" s="1">
         <v>95</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>9.999999999999991</v>
       </c>
     </row>
   </sheetData>

--- a/exports/PackSize-Flexibility/1-RandomVariable.xlsx
+++ b/exports/PackSize-Flexibility/1-RandomVariable.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -447,7 +447,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -587,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1217,10 +1217,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1252,10 +1252,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.9949238578680203</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1287,10 +1287,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0.9923857868020305</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1322,10 +1322,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.9796954314720813</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1357,13 +1357,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0.9822335025380711</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1392,16 +1392,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0.934010152284264</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.05583756345177665</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0.949238578680203</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.04314720812182741</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1462,13 +1462,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0.9238578680203046</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.05583756345177665</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1497,22 +1497,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0.9060913705583756</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.04060913705583756</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.03553299492385787</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1532,25 +1532,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0.8807106598984772</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.0583756345177665</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.02284263959390863</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.02791878172588833</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1567,22 +1567,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.883248730964467</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.05076142131979695</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.04822335025380711</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1602,16 +1602,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0.9035532994923858</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>0.05583756345177665</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.02791878172588833</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0.934010152284264</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.03807106598984772</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1672,16 +1672,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0.9111675126903553</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.05583756345177665</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>0.03045685279187817</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1707,13 +1707,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.9543147208121827</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>0.04060913705583756</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1742,10 +1742,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.9695431472081218</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>0.03045685279187817</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.9771573604060914</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>0.02284263959390863</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.9746192893401016</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>0.02284263959390863</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1847,10 +1847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0.9847715736040609</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1882,10 +1882,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.9898477157360406</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1917,13 +1917,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0.9822335025380711</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1952,10 +1952,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0.9898477157360406</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1987,10 +1987,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2022,10 +2022,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0.9822335025380711</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>0.01776649746192894</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2057,10 +2057,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.9923857868020305</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0.9873096446700508</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2127,10 +2127,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0.9949238578680203</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2162,13 +2162,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0.9670050761421319</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.02284263959390863</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2197,13 +2197,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0.9543147208121827</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>0.04060913705583756</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2232,16 +2232,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0.949238578680203</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>0.03807106598984772</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2267,13 +2267,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0.9619289340101523</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>0.03553299492385787</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2302,13 +2302,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0.9568527918781726</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>0.03553299492385787</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2337,13 +2337,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0.9695431472081218</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>0.02791878172588833</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2372,13 +2372,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0.9796954314720813</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2407,13 +2407,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0.9746192893401016</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>0.02284263959390863</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0.9822335025380711</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2477,10 +2477,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0.9949238578680203</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2512,10 +2512,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0.9873096446700508</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0.9873096446700508</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2582,10 +2582,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0.9923857868020305</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2652,10 +2652,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0.9949238578680203</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2687,10 +2687,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0.9949238578680203</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2792,10 +2792,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2862,7 +2862,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2897,10 +2897,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -3072,7 +3072,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3142,10 +3142,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3212,7 +3212,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -3282,7 +3282,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -3422,7 +3422,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3457,10 +3457,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3492,10 +3492,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3527,7 +3527,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0.9974619289340102</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3816,480 +3816,3240 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="K27">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="K29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="C30">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="D30">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="E30">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="F30">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="G30">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="H30">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="K30">
+        <v>0.2727272727272727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="F31">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="J31">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="K31">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0.3043478260869565</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="H32">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="I32">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="J32">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="K32">
+        <v>0.2608695652173913</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D33">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="E33">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="K33">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0.08</v>
+      </c>
+      <c r="E34">
+        <v>0.04</v>
+      </c>
+      <c r="F34">
+        <v>0.04</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0.24</v>
+      </c>
+      <c r="J34">
+        <v>0.36</v>
+      </c>
+      <c r="K34">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="D35">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="E35">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="F35">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="J35">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="K35">
+        <v>0.2173913043478261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="C36">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="D36">
+        <v>0.3043478260869565</v>
+      </c>
+      <c r="E36">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="F36">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="I36">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="J36">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="K36">
+        <v>0.04347826086956522</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="C37">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="D37">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="E37">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="F37">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="G37">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="H37">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="I37">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="J37">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="D38">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="E38">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="F38">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="G38">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="H38">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="I38">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="J38">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="K38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="D39">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="E39">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="I39">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0.1176470588235294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="D40">
+        <v>0.25</v>
+      </c>
+      <c r="E40">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="H40">
+        <v>0.25</v>
+      </c>
+      <c r="I40">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0.5</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0.125</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0.375</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0.3</v>
+      </c>
+      <c r="D42">
+        <v>0.2</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0.1</v>
+      </c>
+      <c r="H42">
+        <v>0.2</v>
+      </c>
+      <c r="I42">
+        <v>0.2</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <v>0.5</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="H43">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="I43">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>0.5</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0.25</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.25</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0.2</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0.2</v>
+      </c>
+      <c r="G45">
+        <v>0.2</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0.4</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0.25</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0.25</v>
+      </c>
+      <c r="G46">
+        <v>0.5</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="E48">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="F48">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G48">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0.2</v>
+      </c>
+      <c r="E50">
+        <v>0.4</v>
+      </c>
+      <c r="F50">
+        <v>0.2</v>
+      </c>
+      <c r="G50">
+        <v>0.2</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="E52">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="F52">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="G52">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D53">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E53">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="F53">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="G53">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="H53">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="E54">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="F54">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="G54">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="K54">
+        <v>0.05882352941176471</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="C55">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D55">
+        <v>0.4</v>
+      </c>
+      <c r="E55">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="F55">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="C56">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="D56">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="E56">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="D57">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="E57">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0.125</v>
+      </c>
+      <c r="D58">
+        <v>0.5</v>
+      </c>
+      <c r="E58">
+        <v>0.25</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0.125</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D59">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E59">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C60">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D60">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0.5</v>
+      </c>
+      <c r="D61">
+        <v>0.5</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <v>0.2</v>
+      </c>
+      <c r="C62">
+        <v>0.6</v>
+      </c>
+      <c r="D62">
+        <v>0.2</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <v>0.6</v>
+      </c>
+      <c r="C63">
+        <v>0.4</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0.5</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0.5</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:11">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:11">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1">
         <v>95</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4342,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4377,7 +7137,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4412,7 +7172,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4447,7 +7207,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4482,7 +7242,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4517,7 +7277,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4552,7 +7312,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -4587,7 +7347,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4622,7 +7382,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4657,7 +7417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -4692,7 +7452,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4727,7 +7487,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4762,7 +7522,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4797,7 +7557,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -4832,7 +7592,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4867,7 +7627,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4902,7 +7662,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4937,7 +7697,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4972,7 +7732,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -5042,10 +7802,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -5077,7 +7837,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -5112,7 +7872,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -5147,10 +7907,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -5182,13 +7942,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5252,10 +8012,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.9923857868020305</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -5287,19 +8047,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0.984771573604061</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -5322,19 +8082,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0.9416243654822336</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.04060913705583756</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -5357,16 +8117,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0.9543147208121827</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.03553299492385787</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -5392,16 +8152,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0.931472081218274</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.05076142131979695</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -5427,28 +8187,28 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0.9137055837563453</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.03299492385786802</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.02284263959390863</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -5462,34 +8222,34 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0.8857868020304568</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.05583756345177665</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>0.01776649746192894</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -5497,19 +8257,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.8959390862944163</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.03553299492385787</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.02791878172588833</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -5521,7 +8281,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -5532,25 +8292,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0.9213197969543147</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -5567,22 +8327,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0.9492385786802031</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -5591,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -5602,16 +8362,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0.934010152284264</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.03299492385786802</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -5637,13 +8397,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.967005076142132</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>0.02284263959390863</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -5672,13 +8432,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.9771573604060915</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -5707,13 +8467,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.9822335025380711</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -5742,13 +8502,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.9771573604060915</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>0.01776649746192894</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -5777,13 +8537,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0.9923857868020305</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -5812,16 +8572,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.9923857868020305</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -5847,13 +8607,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0.9873096446700507</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -5882,13 +8642,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0.9923857868020305</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -5917,13 +8677,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -5952,13 +8712,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0.9898477157360406</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -5987,13 +8747,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.9923857868020305</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -6022,10 +8782,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6092,13 +8852,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0.9822335025380711</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -6127,16 +8887,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0.9873096446700507</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -6162,13 +8922,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0.9720812182741116</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -6197,13 +8957,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0.9796954314720812</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -6232,13 +8992,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0.9771573604060915</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -6267,13 +9027,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0.984771573604061</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -6302,13 +9062,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0.984771573604061</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -6337,13 +9097,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0.9873096446700507</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -6372,10 +9132,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0.9949238578680202</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -6407,10 +9167,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -6442,10 +9202,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0.9949238578680202</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -6477,13 +9237,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0.9898477157360406</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -6582,10 +9342,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -6652,7 +9412,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -6687,13 +9447,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -6722,13 +9482,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -6757,7 +9517,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -6792,7 +9552,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -6862,7 +9622,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -6897,7 +9657,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -6932,7 +9692,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -6967,7 +9727,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -7002,7 +9762,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -7037,7 +9797,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -7107,7 +9867,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -7142,7 +9902,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -7177,7 +9937,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -7212,7 +9972,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -7247,7 +10007,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -7282,7 +10042,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -7317,7 +10077,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -7352,7 +10112,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -7387,13 +10147,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -7457,7 +10217,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -7492,7 +10252,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -7527,7 +10287,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -7562,7 +10322,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -7597,7 +10357,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -7632,7 +10392,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -7667,10 +10427,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0.9974619289340101</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -7746,480 +10506,3360 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0.9999999999999991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0.9999999999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>0.25</v>
+      </c>
+      <c r="C28">
+        <v>0.4999999999999998</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0.2499999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0.6666666666666665</v>
+      </c>
+      <c r="D29">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="E29">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="C30">
+        <v>0.3076923076923076</v>
+      </c>
+      <c r="D30">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="E30">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="F30">
+        <v>0.03846153846153847</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="I30">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0.1153846153846153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <v>0.05</v>
+      </c>
+      <c r="C31">
+        <v>0.4999999999999998</v>
+      </c>
+      <c r="D31">
+        <v>0.1</v>
+      </c>
+      <c r="E31">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="F31">
+        <v>0.05000000000000002</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0.1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="C32">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="D32">
+        <v>0.3</v>
+      </c>
+      <c r="E32">
+        <v>0.03333333333333334</v>
+      </c>
+      <c r="F32">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="G32">
+        <v>0.03333333333333331</v>
+      </c>
+      <c r="H32">
+        <v>0.06666666666666668</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0.06666666666666661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="C33">
+        <v>0.4594594594594593</v>
+      </c>
+      <c r="D33">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="E33">
+        <v>0.0810810810810811</v>
+      </c>
+      <c r="F33">
+        <v>0.0810810810810811</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0.0810810810810811</v>
+      </c>
+      <c r="I33">
+        <v>0.02702702702702704</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0.08108108108108103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>0.1276595744680851</v>
+      </c>
+      <c r="C34">
+        <v>0.3191489361702127</v>
+      </c>
+      <c r="D34">
+        <v>0.2765957446808511</v>
+      </c>
+      <c r="E34">
+        <v>0.1702127659574468</v>
+      </c>
+      <c r="F34">
+        <v>0.04255319148936171</v>
+      </c>
+      <c r="G34">
+        <v>0.02127659574468083</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0.02127659574468085</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0.02127659574468083</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="C35">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="D35">
+        <v>0.282608695652174</v>
+      </c>
+      <c r="E35">
+        <v>0.2608695652173914</v>
+      </c>
+      <c r="F35">
+        <v>0.1086956521739131</v>
+      </c>
+      <c r="G35">
+        <v>0.06521739130434777</v>
+      </c>
+      <c r="H35">
+        <v>0.02173913043478262</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0.08695652173913036</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="C36">
+        <v>0.2105263157894736</v>
+      </c>
+      <c r="D36">
+        <v>0.2894736842105264</v>
+      </c>
+      <c r="E36">
+        <v>0.1315789473684211</v>
+      </c>
+      <c r="F36">
+        <v>0.07894736842105265</v>
+      </c>
+      <c r="G36">
+        <v>0.05263157894736838</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0.07894736842105265</v>
+      </c>
+      <c r="J36">
+        <v>0.02631578947368422</v>
+      </c>
+      <c r="K36">
+        <v>0.07894736842105257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>0.08000000000000002</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0.2800000000000001</v>
+      </c>
+      <c r="E37">
+        <v>0.16</v>
+      </c>
+      <c r="F37">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="G37">
+        <v>0.03999999999999997</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0.08000000000000002</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0.1599999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>0.08571428571428572</v>
+      </c>
+      <c r="C38">
+        <v>0.3428571428571427</v>
+      </c>
+      <c r="D38">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="E38">
+        <v>0.02857142857142858</v>
+      </c>
+      <c r="F38">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="G38">
+        <v>0.08571428571428565</v>
+      </c>
+      <c r="H38">
+        <v>0.02857142857142858</v>
+      </c>
+      <c r="I38">
+        <v>0.02857142857142858</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0.0571428571428571</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C39">
+        <v>0.05555555555555554</v>
+      </c>
+      <c r="D39">
+        <v>0.05555555555555557</v>
+      </c>
+      <c r="E39">
+        <v>0.2222222222222223</v>
+      </c>
+      <c r="F39">
+        <v>0.2222222222222223</v>
+      </c>
+      <c r="G39">
+        <v>0.0555555555555555</v>
+      </c>
+      <c r="H39">
+        <v>0.05555555555555557</v>
+      </c>
+      <c r="I39">
+        <v>0.05555555555555557</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0.1666666666666665</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D40">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0.1666666666666665</v>
+      </c>
+      <c r="H40">
+        <v>0.08333333333333336</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0.2499999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D41">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="H41">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0.5555555555555551</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="D42">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E42">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0.5555555555555551</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C43">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0.4999999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.2500000000000001</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0.7499999999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0.2857142857142858</v>
+      </c>
+      <c r="G45">
+        <v>0.1428571428571427</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0.4285714285714282</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="G46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="F48">
+        <v>0.4285714285714287</v>
+      </c>
+      <c r="G48">
+        <v>0.1428571428571427</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0.1428571428571427</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0.6666666666666669</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>0.2</v>
+      </c>
+      <c r="C50">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0.4000000000000001</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0.4999999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="C52">
+        <v>0.2307692307692307</v>
+      </c>
+      <c r="D52">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="E52">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0.07692307692307686</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0.07692307692307694</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C53">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D53">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E53">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="F53">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="G53">
+        <v>0.0555555555555555</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0.0555555555555555</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54">
+        <v>0.05</v>
+      </c>
+      <c r="C54">
+        <v>0.2</v>
+      </c>
+      <c r="D54">
+        <v>0.2500000000000001</v>
+      </c>
+      <c r="E54">
+        <v>0.15</v>
+      </c>
+      <c r="F54">
+        <v>0.15</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0.05000000000000002</v>
+      </c>
+      <c r="I54">
+        <v>0.05000000000000002</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0.09999999999999992</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="C55">
+        <v>0.06666666666666664</v>
+      </c>
+      <c r="D55">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="E55">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="F55">
+        <v>0.06666666666666668</v>
+      </c>
+      <c r="G55">
+        <v>0.1333333333333332</v>
+      </c>
+      <c r="H55">
+        <v>0.06666666666666668</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="C56">
+        <v>0.05882352941176469</v>
+      </c>
+      <c r="D56">
+        <v>0.05882352941176472</v>
+      </c>
+      <c r="E56">
+        <v>0.05882352941176472</v>
+      </c>
+      <c r="F56">
+        <v>0.2352941176470589</v>
+      </c>
+      <c r="G56">
+        <v>0.352941176470588</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0.05882352941176472</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0.05882352941176466</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <v>0.08333333333333334</v>
+      </c>
+      <c r="C57">
+        <v>0.2499999999999999</v>
+      </c>
+      <c r="D57">
+        <v>0.08333333333333336</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0.08333333333333336</v>
+      </c>
+      <c r="G57">
+        <v>0.1666666666666665</v>
+      </c>
+      <c r="H57">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="I57">
+        <v>0.08333333333333336</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0.08333333333333326</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0.125</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0.125</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0.2499999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0.2</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0.1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0.3999999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="F60">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0.4285714285714282</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0.4999999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <v>0.25</v>
+      </c>
+      <c r="C62">
+        <v>0.2499999999999999</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0.2500000000000001</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0.2499999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0.9999999999999991</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0.9999999999999991</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0.4999999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0.9999999999999991</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67">
+        <v>0.5</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0.4999999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0.9999999999999991</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0.9999999999999991</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0.9999999999999991</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1">
         <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0.9999999999999991</v>
       </c>
     </row>
   </sheetData>
